--- a/config_5.11/item_config.xlsx
+++ b/config_5.11/item_config.xlsx
@@ -3030,7 +3030,7 @@
     <t>act_ty_zp1_cjq</t>
   </si>
   <si>
-    <t>五一超值礼包抽奖券</t>
+    <t>超值礼包抽奖券</t>
   </si>
   <si>
     <t>prop_ty_csbox</t>
@@ -3411,10 +3411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3468,37 +3468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3512,29 +3484,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3549,39 +3508,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3603,7 +3544,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3616,8 +3587,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3674,7 +3674,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,145 +3830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,19 +3842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3894,21 +3882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3928,7 +3901,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3950,9 +3938,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3960,19 +3950,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3991,6 +3970,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3999,10 +3987,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4011,137 +3999,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4587,10 +4575,10 @@
   <sheetPr/>
   <dimension ref="A1:Q322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomLeft" activeCell="J299" sqref="J299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_5.11/item_config.xlsx
+++ b/config_5.11/item_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -1760,7 +1755,13 @@
     <t>obj_3d_1000flq</t>
   </si>
   <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
     <t>act_ty_by_drop_7</t>
+  </si>
+  <si>
+    <t>铁锤</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -3396,28 +3397,26 @@
     <t>prop_grade</t>
   </si>
   <si>
-    <t>com_award_icon_f</t>
-  </si>
-  <si>
-    <t>福气</t>
-  </si>
-  <si>
-    <t>用于参加福气达人排行榜</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁锤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>yxdr_bg_1</t>
+  </si>
+  <si>
+    <t>财力</t>
+  </si>
+  <si>
+    <t>用于参加游戏达人排行榜</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3440,16 +3439,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3461,7 +3453,7 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3477,17 +3469,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3502,31 +3632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,8 +3672,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3577,15 +3893,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3619,7 +4177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3628,101 +4186,142 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3980,17 +4579,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4013,7 +4613,7 @@
     <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90.75" customHeight="1">
+    <row r="1" ht="90.75" customHeight="1" spans="1:17">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +4666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:11">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4093,7 +4693,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4125,7 +4725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4151,7 +4751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:10">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4177,7 +4777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4203,7 +4803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4229,7 +4829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:10">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4255,7 +4855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:12">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4290,7 +4890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4317,7 +4917,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4344,7 +4944,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4371,7 +4971,7 @@
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4398,7 +4998,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4425,7 +5025,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4452,7 +5052,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4479,7 +5079,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:11">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4506,7 +5106,7 @@
       </c>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:11">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4533,7 +5133,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:10">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4559,7 +5159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:10">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4585,7 +5185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:10">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4611,7 +5211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:10">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4637,7 +5237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:10">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4663,7 +5263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:10">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4689,7 +5289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4715,7 +5315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:11">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -4748,7 +5348,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -4775,7 +5375,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4811,7 +5411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4883,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1">
+    <row r="31" s="2" customFormat="1" spans="1:12">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4918,7 +5518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1">
+    <row r="32" s="2" customFormat="1" spans="1:12">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4953,7 +5553,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1">
+    <row r="33" s="2" customFormat="1" spans="1:12">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4988,7 +5588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1">
+    <row r="34" s="2" customFormat="1" spans="1:12">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5023,7 +5623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:10">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -5157,7 +5757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -5187,7 +5787,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -5217,7 +5817,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -5429,7 +6029,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -5462,7 +6062,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5">
+    <row r="48" ht="16.5" spans="1:12">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -5496,7 +6096,7 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5">
+    <row r="49" ht="16.5" spans="1:12">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -5530,7 +6130,7 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:11">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -5557,7 +6157,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:12">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -5592,7 +6192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:12">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -5627,7 +6227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5">
+    <row r="53" ht="16.5" spans="1:10">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -5659,7 +6259,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5">
+    <row r="54" ht="16.5" spans="1:14">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -5697,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5">
+    <row r="55" ht="16.5" spans="1:14">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -5735,7 +6335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5">
+    <row r="56" ht="16.5" spans="1:14">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -5773,7 +6373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5">
+    <row r="57" ht="16.5" spans="1:12">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -5808,7 +6408,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5">
+    <row r="58" ht="16.5" spans="1:14">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -5843,7 +6443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5">
+    <row r="59" ht="16.5" spans="1:14">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -5878,7 +6478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5">
+    <row r="60" ht="16.5" spans="1:14">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -5913,7 +6513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5">
+    <row r="61" ht="16.5" spans="1:14">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -5948,7 +6548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5">
+    <row r="62" ht="16.5" spans="1:14">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -5983,7 +6583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5">
+    <row r="63" ht="16.5" spans="1:12">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -6018,7 +6618,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5">
+    <row r="64" ht="16.5" spans="1:10">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -6050,7 +6650,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5">
+    <row r="65" ht="16.5" spans="1:12">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -6085,7 +6685,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:10">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -6117,7 +6717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:10">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -6149,7 +6749,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:10">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -6181,7 +6781,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:10">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -6213,7 +6813,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5">
+    <row r="70" ht="16.5" spans="1:12">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -6248,7 +6848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5">
+    <row r="71" ht="16.5" spans="1:10">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -6280,7 +6880,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5">
+    <row r="72" ht="16.5" spans="1:10">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -6312,7 +6912,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5">
+    <row r="73" ht="16.5" spans="1:14">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -6388,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5">
+    <row r="75" ht="16.5" spans="1:14">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -6426,7 +7026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5">
+    <row r="76" ht="16.5" spans="1:14">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -6462,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="27">
+    <row r="77" ht="27" spans="1:12">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -6497,7 +7097,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:12">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -6530,7 +7130,7 @@
       </c>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5">
+    <row r="79" ht="16.5" spans="1:10">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -6562,7 +7162,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5">
+    <row r="80" ht="16.5" spans="1:12">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -6595,7 +7195,7 @@
       </c>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5">
+    <row r="81" ht="16.5" spans="1:15">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -6633,7 +7233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16.5">
+    <row r="82" ht="16.5" spans="1:15">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -6671,7 +7271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16.5">
+    <row r="83" ht="16.5" spans="1:10">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6703,7 +7303,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16.5">
+    <row r="84" ht="16.5" spans="1:10">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6735,7 +7335,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="16.5">
+    <row r="85" ht="16.5" spans="1:10">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -6767,7 +7367,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16.5">
+    <row r="86" ht="16.5" spans="1:10">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -6799,7 +7399,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="16.5">
+    <row r="87" ht="16.5" spans="1:10">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -6831,7 +7431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="16.5">
+    <row r="88" ht="16.5" spans="1:10">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -6863,7 +7463,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="16.5">
+    <row r="89" ht="16.5" spans="1:10">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -6895,7 +7495,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="16.5">
+    <row r="90" ht="16.5" spans="1:10">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -6927,7 +7527,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="16.5">
+    <row r="91" ht="16.5" spans="1:10">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -6959,7 +7559,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="16.5">
+    <row r="92" ht="16.5" spans="1:10">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -6991,7 +7591,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="16.5">
+    <row r="93" ht="16.5" spans="1:10">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -7023,7 +7623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="16.5">
+    <row r="94" ht="16.5" spans="1:17">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -7067,7 +7667,7 @@
         <v>1581177599</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="16.5">
+    <row r="95" ht="16.5" spans="1:10">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -7099,7 +7699,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="16.5">
+    <row r="96" ht="16.5" spans="1:10">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -7131,7 +7731,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5">
+    <row r="97" ht="16.5" spans="1:14">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -7166,7 +7766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16.5">
+    <row r="98" ht="16.5" spans="1:14">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -7201,7 +7801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5">
+    <row r="99" ht="16.5" spans="1:14">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -7236,7 +7836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5">
+    <row r="100" ht="16.5" spans="1:14">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -7271,7 +7871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16.5">
+    <row r="101" ht="16.5" spans="1:14">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -7306,7 +7906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5">
+    <row r="102" ht="16.5" spans="1:14">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -7341,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5">
+    <row r="103" ht="16.5" spans="1:14">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -7376,7 +7976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5">
+    <row r="104" ht="16.5" spans="1:14">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -7411,7 +8011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5">
+    <row r="105" ht="16.5" spans="1:14">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -7446,7 +8046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5">
+    <row r="106" ht="16.5" spans="1:14">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -7481,7 +8081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5">
+    <row r="107" ht="16.5" spans="1:14">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -7518,7 +8118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5">
+    <row r="108" ht="16.5" spans="1:14">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -7555,7 +8155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5">
+    <row r="109" ht="16.5" spans="1:10">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -7587,7 +8187,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5">
+    <row r="110" ht="16.5" spans="1:12">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -7620,7 +8220,7 @@
       </c>
       <c r="L110" s="14"/>
     </row>
-    <row r="111" spans="1:14" ht="16.5">
+    <row r="111" ht="16.5" spans="1:14">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -7658,7 +8258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.5">
+    <row r="112" ht="16.5" spans="1:14">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -7696,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5">
+    <row r="113" ht="16.5" spans="1:14">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -7734,7 +8334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5">
+    <row r="114" ht="16.5" spans="1:14">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -7772,7 +8372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5">
+    <row r="115" ht="16.5" spans="1:14">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -7810,7 +8410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5">
+    <row r="116" ht="16.5" spans="1:14">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -7848,7 +8448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5">
+    <row r="117" ht="16.5" spans="1:12">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -7882,7 +8482,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="14"/>
     </row>
-    <row r="118" spans="1:14" ht="16.5">
+    <row r="118" ht="16.5" spans="1:10">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -7914,7 +8514,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5">
+    <row r="119" ht="16.5" spans="1:10">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -7946,7 +8546,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5">
+    <row r="120" ht="16.5" spans="1:10">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -7978,7 +8578,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5">
+    <row r="121" ht="16.5" spans="1:10">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -8010,7 +8610,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5">
+    <row r="122" ht="16.5" spans="1:10">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -8042,7 +8642,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5">
+    <row r="123" ht="16.5" spans="1:14">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -8077,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5">
+    <row r="124" ht="16.5" spans="1:14">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -8112,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5">
+    <row r="125" ht="16.5" spans="1:14">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -8147,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5">
+    <row r="126" ht="16.5" spans="1:14">
       <c r="A126" s="10">
         <v>125</v>
       </c>
@@ -8182,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16.5">
+    <row r="127" ht="16.5" spans="1:14">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -8217,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16.5">
+    <row r="128" ht="16.5" spans="1:14">
       <c r="A128" s="10">
         <v>127</v>
       </c>
@@ -8252,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5">
+    <row r="129" ht="16.5" spans="1:14">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -8287,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16.5">
+    <row r="130" ht="16.5" spans="1:14">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -8322,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16.5">
+    <row r="131" ht="16.5" spans="1:10">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -8330,7 +8930,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>1005</v>
+        <v>463</v>
       </c>
       <c r="D131" s="8">
         <v>-1</v>
@@ -8339,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G131" s="8">
         <v>0</v>
@@ -8347,14 +8947,14 @@
       <c r="H131" s="8">
         <v>1</v>
       </c>
-      <c r="I131" s="40" t="s">
-        <v>1006</v>
+      <c r="I131" s="30" t="s">
+        <v>465</v>
       </c>
       <c r="J131" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="10">
         <v>131</v>
       </c>
@@ -8362,7 +8962,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -8380,13 +8980,13 @@
         <v>33</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J132" s="24" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -8394,7 +8994,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -8412,13 +9012,13 @@
         <v>33</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="10">
         <v>133</v>
       </c>
@@ -8426,7 +9026,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -8444,13 +9044,13 @@
         <v>33</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="10">
         <v>134</v>
       </c>
@@ -8458,7 +9058,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -8476,13 +9076,13 @@
         <v>33</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="10">
         <v>135</v>
       </c>
@@ -8490,7 +9090,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -8508,13 +9108,13 @@
         <v>33</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="10">
         <v>136</v>
       </c>
@@ -8522,7 +9122,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -8540,13 +9140,13 @@
         <v>33</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="10">
         <v>137</v>
       </c>
@@ -8554,7 +9154,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D138" s="10">
         <v>-1</v>
@@ -8572,13 +9172,13 @@
         <v>33</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -8586,7 +9186,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D139" s="10">
         <v>-1</v>
@@ -8604,13 +9204,13 @@
         <v>33</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="10">
         <v>139</v>
       </c>
@@ -8618,7 +9218,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D140" s="10">
         <v>-1</v>
@@ -8636,13 +9236,13 @@
         <v>33</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="10">
         <v>140</v>
       </c>
@@ -8650,7 +9250,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D141" s="10">
         <v>-1</v>
@@ -8668,13 +9268,13 @@
         <v>33</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -8682,7 +9282,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D142" s="10">
         <v>-1</v>
@@ -8700,13 +9300,13 @@
         <v>33</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="10">
         <v>142</v>
       </c>
@@ -8714,7 +9314,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D143" s="10">
         <v>-1</v>
@@ -8732,13 +9332,13 @@
         <v>33</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="10">
         <v>143</v>
       </c>
@@ -8746,7 +9346,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D144" s="10">
         <v>-1</v>
@@ -8755,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G144" s="10">
         <v>0</v>
@@ -8764,13 +9364,13 @@
         <v>33</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -8778,7 +9378,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D145" s="10">
         <v>-1</v>
@@ -8787,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G145" s="10">
         <v>0</v>
@@ -8796,13 +9396,13 @@
         <v>33</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8810,7 +9410,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D146" s="3">
         <v>-1</v>
@@ -8828,13 +9428,13 @@
         <v>33</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J146" s="36" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8842,7 +9442,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D147" s="3">
         <v>-1</v>
@@ -8863,10 +9463,10 @@
         <v>128</v>
       </c>
       <c r="J147" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="148" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8874,7 +9474,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D148" s="3">
         <v>-1</v>
@@ -8895,10 +9495,10 @@
         <v>133</v>
       </c>
       <c r="J148" s="36" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="149" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8906,7 +9506,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D149" s="3">
         <v>-1</v>
@@ -8924,13 +9524,13 @@
         <v>33</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="150" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8938,7 +9538,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D150" s="3">
         <v>-1</v>
@@ -8959,10 +9559,10 @@
         <v>128</v>
       </c>
       <c r="J150" s="36" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8970,7 +9570,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D151" s="3">
         <v>-1</v>
@@ -8991,10 +9591,10 @@
         <v>133</v>
       </c>
       <c r="J151" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="152" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -9002,7 +9602,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D152" s="3">
         <v>-1</v>
@@ -9020,13 +9620,13 @@
         <v>33</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J152" s="36" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -9034,7 +9634,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D153" s="3">
         <v>-1</v>
@@ -9055,10 +9655,10 @@
         <v>128</v>
       </c>
       <c r="J153" s="36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="154" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -9066,7 +9666,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D154" s="3">
         <v>-1</v>
@@ -9087,10 +9687,10 @@
         <v>133</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" s="3" customFormat="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="155" s="3" customFormat="1" spans="1:10">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -9098,7 +9698,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D155" s="3">
         <v>-1</v>
@@ -9107,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="24" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -9119,10 +9719,10 @@
         <v>279</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -9130,7 +9730,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D156" s="3">
         <v>-1</v>
@@ -9139,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G156" s="3">
         <v>0</v>
@@ -9148,13 +9748,13 @@
         <v>33</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J156" s="36" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" s="3" customFormat="1" ht="16.5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="157" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -9162,7 +9762,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D157" s="3">
         <v>-1</v>
@@ -9171,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G157" s="3">
         <v>1</v>
@@ -9180,19 +9780,19 @@
         <v>34</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J157" s="24" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L157" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N157" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="158" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -9200,7 +9800,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D158" s="3">
         <v>-1</v>
@@ -9209,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="24" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G158" s="3">
         <v>1</v>
@@ -9218,19 +9818,19 @@
         <v>34</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J158" s="24" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N158" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="159" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -9238,7 +9838,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D159" s="3">
         <v>-1</v>
@@ -9247,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="24" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G159" s="3">
         <v>1</v>
@@ -9256,19 +9856,19 @@
         <v>34</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L159" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N159" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="160" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -9276,7 +9876,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D160" s="3">
         <v>-1</v>
@@ -9285,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="24" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G160" s="3">
         <v>1</v>
@@ -9294,19 +9894,19 @@
         <v>34</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J160" s="24" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L160" s="24" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N160" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="161" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -9314,7 +9914,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D161" s="3">
         <v>-1</v>
@@ -9323,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G161" s="3">
         <v>1</v>
@@ -9332,19 +9932,19 @@
         <v>34</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L161" s="24" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N161" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="162" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -9352,7 +9952,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D162" s="2">
         <v>-1</v>
@@ -9361,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
@@ -9370,16 +9970,16 @@
         <v>34</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N162" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="163" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -9387,7 +9987,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D163" s="2">
         <v>-1</v>
@@ -9396,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G163" s="2">
         <v>1</v>
@@ -9405,16 +10005,16 @@
         <v>34</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N163" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="164" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -9422,7 +10022,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D164" s="2">
         <v>-1</v>
@@ -9431,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
@@ -9440,16 +10040,16 @@
         <v>34</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N164" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="165" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -9457,7 +10057,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D165" s="2">
         <v>-1</v>
@@ -9466,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
@@ -9475,16 +10075,16 @@
         <v>34</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N165" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="2" customFormat="1" ht="16.5">
+    <row r="166" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -9492,7 +10092,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D166" s="2">
         <v>-1</v>
@@ -9501,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
@@ -9510,16 +10110,16 @@
         <v>34</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N166" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="167" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -9527,7 +10127,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D167" s="3">
         <v>-1</v>
@@ -9536,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G167" s="3">
         <v>1</v>
@@ -9545,16 +10145,16 @@
         <v>34</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N167" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="168" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -9562,7 +10162,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D168" s="3">
         <v>-1</v>
@@ -9571,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G168" s="3">
         <v>1</v>
@@ -9580,16 +10180,16 @@
         <v>34</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N168" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="169" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -9597,7 +10197,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D169" s="3">
         <v>-1</v>
@@ -9606,7 +10206,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G169" s="3">
         <v>1</v>
@@ -9615,16 +10215,16 @@
         <v>34</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N169" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="170" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -9632,7 +10232,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D170" s="3">
         <v>-1</v>
@@ -9641,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G170" s="3">
         <v>1</v>
@@ -9650,16 +10250,16 @@
         <v>34</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J170" s="24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N170" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="171" s="3" customFormat="1" ht="16.5" spans="1:14">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -9667,7 +10267,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D171" s="3">
         <v>-1</v>
@@ -9676,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G171" s="3">
         <v>1</v>
@@ -9685,16 +10285,16 @@
         <v>34</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N171" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="3" customFormat="1" ht="16.5">
+    <row r="172" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -9702,7 +10302,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D172" s="3">
         <v>-1</v>
@@ -9711,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
@@ -9720,13 +10320,13 @@
         <v>33</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" s="4" customFormat="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" s="4" customFormat="1" spans="1:10">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -9734,7 +10334,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D173" s="4">
         <v>-1</v>
@@ -9743,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G173" s="4">
         <v>1</v>
@@ -9752,13 +10352,13 @@
         <v>33</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" s="4" customFormat="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" s="4" customFormat="1" spans="1:10">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -9766,7 +10366,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D174" s="4">
         <v>-1</v>
@@ -9775,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G174" s="4">
         <v>1</v>
@@ -9784,13 +10384,13 @@
         <v>33</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" s="4" customFormat="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="1" spans="1:10">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -9798,7 +10398,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D175" s="4">
         <v>-1</v>
@@ -9807,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G175" s="4">
         <v>1</v>
@@ -9816,13 +10416,13 @@
         <v>33</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" s="5" customFormat="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="176" s="5" customFormat="1" spans="1:10">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -9830,7 +10430,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D176" s="5">
         <v>-1</v>
@@ -9839,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G176" s="5">
         <v>0</v>
@@ -9848,13 +10448,13 @@
         <v>33</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" s="6" customFormat="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="177" s="6" customFormat="1" spans="1:10">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -9862,7 +10462,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D177" s="6">
         <v>-1</v>
@@ -9880,13 +10480,13 @@
         <v>33</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="16.5">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5" spans="1:14">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -9894,7 +10494,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D178" s="10">
         <v>-1</v>
@@ -9903,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G178" s="10">
         <v>1</v>
@@ -9912,10 +10512,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K178" s="14"/>
       <c r="L178" s="14"/>
@@ -9923,7 +10523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16.5">
+    <row r="179" ht="16.5" spans="1:14">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -9931,7 +10531,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D179" s="10">
         <v>-1</v>
@@ -9940,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G179" s="10">
         <v>1</v>
@@ -9949,10 +10549,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K179" s="14"/>
       <c r="L179" s="14"/>
@@ -9960,7 +10560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16.5">
+    <row r="180" ht="16.5" spans="1:14">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -9968,7 +10568,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D180" s="10">
         <v>-1</v>
@@ -9977,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G180" s="10">
         <v>1</v>
@@ -9986,10 +10586,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K180" s="14"/>
       <c r="L180" s="14"/>
@@ -9997,7 +10597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="6" customFormat="1">
+    <row r="181" s="6" customFormat="1" spans="1:10">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -10005,7 +10605,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D181" s="6">
         <v>-1</v>
@@ -10014,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G181" s="6">
         <v>0</v>
@@ -10023,13 +10623,13 @@
         <v>33</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" s="5" customFormat="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="182" s="5" customFormat="1" spans="1:15">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -10037,7 +10637,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D182" s="5">
         <v>-1</v>
@@ -10046,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G182" s="5">
         <v>1</v>
@@ -10055,19 +10655,19 @@
         <v>33</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O182" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="5" customFormat="1">
+    <row r="183" s="5" customFormat="1" spans="1:15">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -10075,7 +10675,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D183" s="5">
         <v>-1</v>
@@ -10084,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G183" s="5">
         <v>1</v>
@@ -10093,19 +10693,19 @@
         <v>33</v>
       </c>
       <c r="I183" s="33" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="J183" s="33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L183" s="33" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O183" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="5" customFormat="1">
+    <row r="184" s="5" customFormat="1" spans="1:15">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -10113,7 +10713,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D184" s="5">
         <v>-1</v>
@@ -10131,19 +10731,19 @@
         <v>33</v>
       </c>
       <c r="I184" s="33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J184" s="33" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O184" s="5">
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="7" customFormat="1">
+    <row r="185" s="7" customFormat="1" spans="1:14">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -10151,7 +10751,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D185" s="7">
         <v>-1</v>
@@ -10160,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G185" s="7">
         <v>1</v>
@@ -10169,16 +10769,16 @@
         <v>1</v>
       </c>
       <c r="I185" s="35" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J185" s="35" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N185" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="7" customFormat="1">
+    <row r="186" s="7" customFormat="1" spans="1:14">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -10186,7 +10786,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D186" s="7">
         <v>-1</v>
@@ -10195,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G186" s="7">
         <v>1</v>
@@ -10204,16 +10804,16 @@
         <v>2</v>
       </c>
       <c r="I186" s="35" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N186" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="7" customFormat="1">
+    <row r="187" s="7" customFormat="1" spans="1:14">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -10221,7 +10821,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D187" s="7">
         <v>-1</v>
@@ -10230,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G187" s="7">
         <v>1</v>
@@ -10239,16 +10839,16 @@
         <v>3</v>
       </c>
       <c r="I187" s="35" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J187" s="35" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N187" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="7" customFormat="1">
+    <row r="188" s="7" customFormat="1" spans="1:14">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -10256,7 +10856,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D188" s="7">
         <v>-1</v>
@@ -10265,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G188" s="7">
         <v>1</v>
@@ -10274,16 +10874,16 @@
         <v>4</v>
       </c>
       <c r="I188" s="35" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J188" s="35" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N188" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="7" customFormat="1">
+    <row r="189" s="7" customFormat="1" spans="1:14">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -10291,7 +10891,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="35" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D189" s="7">
         <v>-1</v>
@@ -10300,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G189" s="7">
         <v>1</v>
@@ -10309,16 +10909,16 @@
         <v>5</v>
       </c>
       <c r="I189" s="35" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="J189" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N189" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="7" customFormat="1">
+    <row r="190" s="7" customFormat="1" spans="1:14">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -10326,7 +10926,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D190" s="7">
         <v>-1</v>
@@ -10335,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G190" s="7">
         <v>1</v>
@@ -10344,16 +10944,16 @@
         <v>6</v>
       </c>
       <c r="I190" s="35" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J190" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N190" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="7" customFormat="1">
+    <row r="191" s="7" customFormat="1" spans="1:14">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -10361,7 +10961,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D191" s="7">
         <v>-1</v>
@@ -10370,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G191" s="7">
         <v>1</v>
@@ -10379,16 +10979,16 @@
         <v>7</v>
       </c>
       <c r="I191" s="35" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J191" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N191" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:14">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -10396,7 +10996,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D192" s="7">
         <v>-1</v>
@@ -10405,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G192" s="7">
         <v>1</v>
@@ -10414,10 +11014,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="35" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J192" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N192" s="7">
         <v>16</v>
@@ -10431,7 +11031,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D193" s="7">
         <v>-1</v>
@@ -10440,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G193" s="7">
         <v>1</v>
@@ -10449,10 +11049,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="35" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J193" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N193" s="7">
         <v>16</v>
@@ -10466,7 +11066,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D194" s="7">
         <v>-1</v>
@@ -10475,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G194" s="7">
         <v>1</v>
@@ -10484,10 +11084,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="35" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N194" s="7">
         <v>16</v>
@@ -10501,7 +11101,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="35" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D195" s="7">
         <v>-1</v>
@@ -10510,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G195" s="7">
         <v>1</v>
@@ -10519,10 +11119,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="35" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J195" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N195" s="7">
         <v>16</v>
@@ -10536,7 +11136,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D196" s="7">
         <v>-1</v>
@@ -10545,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G196" s="7">
         <v>1</v>
@@ -10554,10 +11154,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="35" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J196" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N196" s="7">
         <v>16</v>
@@ -10571,7 +11171,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D197" s="7">
         <v>-1</v>
@@ -10580,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G197" s="7">
         <v>1</v>
@@ -10589,10 +11189,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="35" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J197" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N197" s="7">
         <v>16</v>
@@ -10606,7 +11206,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D198" s="7">
         <v>-1</v>
@@ -10615,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G198" s="7">
         <v>1</v>
@@ -10624,10 +11224,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="35" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="J198" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N198" s="7">
         <v>16</v>
@@ -10641,7 +11241,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D199" s="7">
         <v>-1</v>
@@ -10650,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G199" s="7">
         <v>1</v>
@@ -10659,10 +11259,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="35" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J199" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N199" s="7">
         <v>16</v>
@@ -10676,7 +11276,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="35" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D200" s="7">
         <v>-1</v>
@@ -10685,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G200" s="7">
         <v>1</v>
@@ -10694,10 +11294,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="35" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J200" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N200" s="7">
         <v>16</v>
@@ -10711,7 +11311,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="35" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D201" s="7">
         <v>-1</v>
@@ -10720,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G201" s="7">
         <v>1</v>
@@ -10729,10 +11329,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="35" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J201" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N201" s="7">
         <v>16</v>
@@ -10746,7 +11346,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="35" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D202" s="7">
         <v>-1</v>
@@ -10755,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G202" s="7">
         <v>1</v>
@@ -10764,10 +11364,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="35" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J202" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N202" s="7">
         <v>16</v>
@@ -10781,7 +11381,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="35" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D203" s="7">
         <v>-1</v>
@@ -10790,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G203" s="7">
         <v>1</v>
@@ -10799,10 +11399,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="35" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J203" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N203" s="7">
         <v>16</v>
@@ -10816,7 +11416,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D204" s="7">
         <v>-1</v>
@@ -10825,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G204" s="7">
         <v>1</v>
@@ -10834,10 +11434,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="35" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="J204" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N204" s="7">
         <v>16</v>
@@ -10851,7 +11451,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D205" s="7">
         <v>-1</v>
@@ -10860,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G205" s="7">
         <v>1</v>
@@ -10869,10 +11469,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="35" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J205" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N205" s="7">
         <v>16</v>
@@ -10886,7 +11486,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D206" s="7">
         <v>-1</v>
@@ -10895,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G206" s="7">
         <v>1</v>
@@ -10904,10 +11504,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="35" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J206" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N206" s="7">
         <v>16</v>
@@ -10921,7 +11521,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D207" s="7">
         <v>-1</v>
@@ -10930,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G207" s="7">
         <v>1</v>
@@ -10939,10 +11539,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="35" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J207" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N207" s="7">
         <v>16</v>
@@ -10956,7 +11556,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D208" s="7">
         <v>-1</v>
@@ -10965,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G208" s="7">
         <v>1</v>
@@ -10974,10 +11574,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="35" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="J208" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N208" s="7">
         <v>16</v>
@@ -10991,7 +11591,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D209" s="7">
         <v>-1</v>
@@ -11000,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G209" s="7">
         <v>1</v>
@@ -11009,10 +11609,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="35" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J209" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N209" s="7">
         <v>16</v>
@@ -11026,7 +11626,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D210" s="7">
         <v>-1</v>
@@ -11035,7 +11635,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G210" s="7">
         <v>1</v>
@@ -11044,10 +11644,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="35" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="J210" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N210" s="7">
         <v>16</v>
@@ -11061,7 +11661,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="35" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D211" s="7">
         <v>-1</v>
@@ -11070,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G211" s="7">
         <v>1</v>
@@ -11079,10 +11679,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="35" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J211" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N211" s="7">
         <v>16</v>
@@ -11096,7 +11696,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D212" s="7">
         <v>-1</v>
@@ -11105,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G212" s="7">
         <v>1</v>
@@ -11114,10 +11714,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J212" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N212" s="7">
         <v>16</v>
@@ -11131,7 +11731,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D213" s="7">
         <v>-1</v>
@@ -11140,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G213" s="7">
         <v>1</v>
@@ -11149,10 +11749,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="35" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J213" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N213" s="7">
         <v>16</v>
@@ -11166,7 +11766,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D214" s="7">
         <v>-1</v>
@@ -11175,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G214" s="7">
         <v>1</v>
@@ -11184,10 +11784,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="35" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J214" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N214" s="7">
         <v>16</v>
@@ -11201,7 +11801,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D215" s="7">
         <v>-1</v>
@@ -11210,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G215" s="7">
         <v>1</v>
@@ -11219,10 +11819,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="35" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J215" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N215" s="7">
         <v>16</v>
@@ -11236,7 +11836,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D216" s="7">
         <v>-1</v>
@@ -11245,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G216" s="7">
         <v>1</v>
@@ -11254,10 +11854,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="35" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="J216" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N216" s="7">
         <v>16</v>
@@ -11271,7 +11871,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D217" s="7">
         <v>-1</v>
@@ -11280,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G217" s="7">
         <v>1</v>
@@ -11289,10 +11889,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="35" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J217" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N217" s="7">
         <v>16</v>
@@ -11306,7 +11906,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D218" s="7">
         <v>-1</v>
@@ -11315,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G218" s="7">
         <v>1</v>
@@ -11324,10 +11924,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="35" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J218" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N218" s="7">
         <v>16</v>
@@ -11341,7 +11941,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D219" s="7">
         <v>-1</v>
@@ -11350,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G219" s="7">
         <v>1</v>
@@ -11359,10 +11959,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="35" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="J219" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N219" s="7">
         <v>16</v>
@@ -11376,7 +11976,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D220" s="7">
         <v>-1</v>
@@ -11385,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="35" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G220" s="7">
         <v>1</v>
@@ -11394,10 +11994,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="35" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J220" s="35" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N220" s="7">
         <v>16</v>
@@ -11411,7 +12011,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D221" s="7">
         <v>-1</v>
@@ -11420,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G221" s="7">
         <v>1</v>
@@ -11429,10 +12029,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="35" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="J221" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N221" s="7">
         <v>16</v>
@@ -11446,7 +12046,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D222" s="7">
         <v>-1</v>
@@ -11455,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G222" s="7">
         <v>1</v>
@@ -11464,10 +12064,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="J222" s="35" t="s">
         <v>738</v>
-      </c>
-      <c r="J222" s="35" t="s">
-        <v>736</v>
       </c>
       <c r="N222" s="7">
         <v>16</v>
@@ -11481,7 +12081,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D223" s="7">
         <v>-1</v>
@@ -11490,7 +12090,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G223" s="7">
         <v>1</v>
@@ -11499,10 +12099,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="35" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J223" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N223" s="7">
         <v>16</v>
@@ -11516,7 +12116,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D224" s="7">
         <v>-1</v>
@@ -11525,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G224" s="7">
         <v>1</v>
@@ -11534,10 +12134,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="35" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J224" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N224" s="7">
         <v>16</v>
@@ -11551,7 +12151,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D225" s="7">
         <v>-1</v>
@@ -11560,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G225" s="7">
         <v>1</v>
@@ -11569,10 +12169,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="35" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J225" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N225" s="7">
         <v>16</v>
@@ -11586,7 +12186,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D226" s="7">
         <v>-1</v>
@@ -11595,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G226" s="7">
         <v>1</v>
@@ -11604,10 +12204,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="35" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J226" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N226" s="7">
         <v>16</v>
@@ -11621,7 +12221,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D227" s="7">
         <v>-1</v>
@@ -11630,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G227" s="7">
         <v>1</v>
@@ -11639,10 +12239,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="35" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J227" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N227" s="7">
         <v>16</v>
@@ -11656,7 +12256,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D228" s="7">
         <v>-1</v>
@@ -11665,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
@@ -11674,10 +12274,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="35" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J228" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N228" s="7">
         <v>16</v>
@@ -11691,7 +12291,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D229" s="7">
         <v>-1</v>
@@ -11700,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G229" s="7">
         <v>1</v>
@@ -11709,10 +12309,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="35" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="J229" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N229" s="7">
         <v>16</v>
@@ -11726,7 +12326,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D230" s="7">
         <v>-1</v>
@@ -11735,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G230" s="7">
         <v>1</v>
@@ -11744,10 +12344,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="35" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="J230" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N230" s="7">
         <v>16</v>
@@ -11761,7 +12361,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D231" s="7">
         <v>-1</v>
@@ -11770,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G231" s="7">
         <v>1</v>
@@ -11779,10 +12379,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="35" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J231" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N231" s="7">
         <v>16</v>
@@ -11796,7 +12396,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D232" s="7">
         <v>-1</v>
@@ -11805,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -11814,10 +12414,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="35" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J232" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N232" s="7">
         <v>16</v>
@@ -11831,7 +12431,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D233" s="7">
         <v>-1</v>
@@ -11840,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -11849,10 +12449,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="35" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J233" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N233" s="7">
         <v>16</v>
@@ -11866,7 +12466,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D234" s="7">
         <v>-1</v>
@@ -11875,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G234" s="7">
         <v>1</v>
@@ -11884,10 +12484,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="35" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="J234" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N234" s="7">
         <v>16</v>
@@ -11901,7 +12501,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D235" s="7">
         <v>-1</v>
@@ -11910,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -11919,10 +12519,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="35" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J235" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N235" s="7">
         <v>16</v>
@@ -11936,7 +12536,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D236" s="7">
         <v>-1</v>
@@ -11945,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G236" s="7">
         <v>1</v>
@@ -11954,10 +12554,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="35" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="J236" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N236" s="7">
         <v>16</v>
@@ -11971,7 +12571,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D237" s="7">
         <v>-1</v>
@@ -11980,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G237" s="7">
         <v>1</v>
@@ -11989,10 +12589,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="35" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="J237" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N237" s="7">
         <v>16</v>
@@ -12006,7 +12606,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D238" s="7">
         <v>-1</v>
@@ -12015,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G238" s="7">
         <v>1</v>
@@ -12024,10 +12624,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="35" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J238" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N238" s="7">
         <v>16</v>
@@ -12041,7 +12641,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D239" s="7">
         <v>-1</v>
@@ -12050,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G239" s="7">
         <v>1</v>
@@ -12059,10 +12659,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="35" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J239" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N239" s="7">
         <v>16</v>
@@ -12076,7 +12676,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D240" s="7">
         <v>-1</v>
@@ -12085,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G240" s="7">
         <v>1</v>
@@ -12094,10 +12694,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="35" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="J240" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N240" s="7">
         <v>16</v>
@@ -12111,7 +12711,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D241" s="7">
         <v>-1</v>
@@ -12120,7 +12720,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G241" s="7">
         <v>1</v>
@@ -12129,10 +12729,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="35" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J241" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N241" s="7">
         <v>16</v>
@@ -12146,7 +12746,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D242" s="7">
         <v>-1</v>
@@ -12155,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G242" s="7">
         <v>1</v>
@@ -12164,10 +12764,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="35" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="J242" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N242" s="7">
         <v>16</v>
@@ -12181,7 +12781,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D243" s="7">
         <v>-1</v>
@@ -12190,7 +12790,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G243" s="7">
         <v>1</v>
@@ -12199,10 +12799,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="35" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J243" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N243" s="7">
         <v>16</v>
@@ -12216,7 +12816,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D244" s="7">
         <v>-1</v>
@@ -12225,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G244" s="7">
         <v>1</v>
@@ -12234,10 +12834,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="35" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J244" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N244" s="7">
         <v>16</v>
@@ -12251,7 +12851,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D245" s="7">
         <v>-1</v>
@@ -12260,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G245" s="7">
         <v>1</v>
@@ -12269,10 +12869,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="35" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="J245" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N245" s="7">
         <v>16</v>
@@ -12286,7 +12886,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D246" s="7">
         <v>-1</v>
@@ -12295,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G246" s="7">
         <v>1</v>
@@ -12304,10 +12904,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="35" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J246" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N246" s="7">
         <v>16</v>
@@ -12321,7 +12921,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D247" s="7">
         <v>-1</v>
@@ -12330,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G247" s="7">
         <v>1</v>
@@ -12339,10 +12939,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="35" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J247" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N247" s="7">
         <v>16</v>
@@ -12356,7 +12956,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D248" s="7">
         <v>-1</v>
@@ -12365,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G248" s="7">
         <v>1</v>
@@ -12374,10 +12974,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="35" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J248" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N248" s="7">
         <v>16</v>
@@ -12391,7 +12991,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D249" s="7">
         <v>-1</v>
@@ -12400,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G249" s="7">
         <v>1</v>
@@ -12409,10 +13009,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="35" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J249" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N249" s="7">
         <v>16</v>
@@ -12426,7 +13026,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D250" s="7">
         <v>-1</v>
@@ -12435,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G250" s="7">
         <v>1</v>
@@ -12444,10 +13044,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="35" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="J250" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N250" s="7">
         <v>16</v>
@@ -12461,7 +13061,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D251" s="7">
         <v>-1</v>
@@ -12470,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G251" s="7">
         <v>1</v>
@@ -12479,10 +13079,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="35" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J251" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N251" s="7">
         <v>16</v>
@@ -12496,7 +13096,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D252" s="7">
         <v>-1</v>
@@ -12505,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="35" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G252" s="7">
         <v>1</v>
@@ -12514,10 +13114,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="35" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J252" s="35" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N252" s="7">
         <v>16</v>
@@ -12531,7 +13131,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D253" s="7">
         <v>-1</v>
@@ -12540,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="35" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G253" s="7">
         <v>1</v>
@@ -12549,10 +13149,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="35" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J253" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N253" s="7">
         <v>16</v>
@@ -12566,7 +13166,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D254" s="7">
         <v>-1</v>
@@ -12575,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G254" s="7">
         <v>1</v>
@@ -12584,10 +13184,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="J254" s="35" t="s">
         <v>803</v>
-      </c>
-      <c r="J254" s="35" t="s">
-        <v>801</v>
       </c>
       <c r="N254" s="7">
         <v>16</v>
@@ -12601,7 +13201,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D255" s="7">
         <v>-1</v>
@@ -12610,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G255" s="7">
         <v>1</v>
@@ -12619,10 +13219,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="35" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J255" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N255" s="7">
         <v>16</v>
@@ -12636,7 +13236,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D256" s="7">
         <v>-1</v>
@@ -12645,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G256" s="7">
         <v>1</v>
@@ -12654,10 +13254,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="35" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J256" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N256" s="7">
         <v>16</v>
@@ -12671,7 +13271,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D257" s="7">
         <v>-1</v>
@@ -12680,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G257" s="7">
         <v>1</v>
@@ -12689,10 +13289,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="35" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J257" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N257" s="7">
         <v>16</v>
@@ -12706,7 +13306,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D258" s="7">
         <v>-1</v>
@@ -12715,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G258" s="7">
         <v>1</v>
@@ -12724,10 +13324,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="35" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J258" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N258" s="7">
         <v>16</v>
@@ -12741,7 +13341,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D259" s="7">
         <v>-1</v>
@@ -12750,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G259" s="7">
         <v>1</v>
@@ -12759,10 +13359,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="35" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J259" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N259" s="7">
         <v>16</v>
@@ -12776,7 +13376,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D260" s="7">
         <v>-1</v>
@@ -12785,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G260" s="7">
         <v>1</v>
@@ -12794,10 +13394,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="35" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="J260" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N260" s="7">
         <v>16</v>
@@ -12811,7 +13411,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D261" s="7">
         <v>-1</v>
@@ -12820,7 +13420,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G261" s="7">
         <v>1</v>
@@ -12829,10 +13429,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="35" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="J261" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N261" s="7">
         <v>16</v>
@@ -12846,7 +13446,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="35" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D262" s="7">
         <v>-1</v>
@@ -12855,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G262" s="7">
         <v>1</v>
@@ -12864,10 +13464,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="35" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J262" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N262" s="7">
         <v>16</v>
@@ -12881,7 +13481,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D263" s="7">
         <v>-1</v>
@@ -12890,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G263" s="7">
         <v>1</v>
@@ -12899,10 +13499,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="35" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J263" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N263" s="7">
         <v>16</v>
@@ -12916,7 +13516,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="35" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D264" s="7">
         <v>-1</v>
@@ -12925,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G264" s="7">
         <v>1</v>
@@ -12934,10 +13534,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="35" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J264" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N264" s="7">
         <v>16</v>
@@ -12951,7 +13551,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="35" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D265" s="7">
         <v>-1</v>
@@ -12960,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G265" s="7">
         <v>1</v>
@@ -12969,10 +13569,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="35" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J265" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N265" s="7">
         <v>16</v>
@@ -12986,7 +13586,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="35" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D266" s="7">
         <v>-1</v>
@@ -12995,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G266" s="7">
         <v>1</v>
@@ -13004,10 +13604,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="35" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J266" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N266" s="7">
         <v>16</v>
@@ -13021,7 +13621,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="35" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D267" s="7">
         <v>-1</v>
@@ -13030,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G267" s="7">
         <v>1</v>
@@ -13039,10 +13639,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="35" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="J267" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N267" s="7">
         <v>16</v>
@@ -13056,7 +13656,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="35" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D268" s="7">
         <v>-1</v>
@@ -13065,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G268" s="7">
         <v>1</v>
@@ -13074,10 +13674,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="35" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J268" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N268" s="7">
         <v>16</v>
@@ -13091,7 +13691,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D269" s="7">
         <v>-1</v>
@@ -13100,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G269" s="7">
         <v>1</v>
@@ -13109,10 +13709,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="35" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J269" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N269" s="7">
         <v>16</v>
@@ -13126,7 +13726,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D270" s="7">
         <v>-1</v>
@@ -13135,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G270" s="7">
         <v>1</v>
@@ -13144,10 +13744,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="35" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J270" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N270" s="7">
         <v>16</v>
@@ -13161,7 +13761,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="35" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D271" s="7">
         <v>-1</v>
@@ -13170,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G271" s="7">
         <v>1</v>
@@ -13179,10 +13779,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="35" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J271" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N271" s="7">
         <v>16</v>
@@ -13196,7 +13796,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D272" s="7">
         <v>-1</v>
@@ -13205,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G272" s="7">
         <v>1</v>
@@ -13214,10 +13814,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="35" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="J272" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N272" s="7">
         <v>16</v>
@@ -13231,7 +13831,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="35" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D273" s="7">
         <v>-1</v>
@@ -13240,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G273" s="7">
         <v>1</v>
@@ -13249,10 +13849,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="35" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J273" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N273" s="7">
         <v>16</v>
@@ -13266,7 +13866,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D274" s="7">
         <v>-1</v>
@@ -13275,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G274" s="7">
         <v>1</v>
@@ -13284,10 +13884,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="35" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J274" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N274" s="7">
         <v>16</v>
@@ -13301,7 +13901,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D275" s="7">
         <v>-1</v>
@@ -13310,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G275" s="7">
         <v>1</v>
@@ -13319,10 +13919,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="35" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="J275" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N275" s="7">
         <v>16</v>
@@ -13336,7 +13936,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="35" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D276" s="7">
         <v>-1</v>
@@ -13345,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G276" s="7">
         <v>1</v>
@@ -13354,10 +13954,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="35" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J276" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N276" s="7">
         <v>16</v>
@@ -13371,7 +13971,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="35" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D277" s="7">
         <v>-1</v>
@@ -13380,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G277" s="7">
         <v>1</v>
@@ -13389,10 +13989,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="35" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="J277" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N277" s="7">
         <v>16</v>
@@ -13406,7 +14006,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="35" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D278" s="7">
         <v>-1</v>
@@ -13415,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G278" s="7">
         <v>1</v>
@@ -13424,10 +14024,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="35" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="J278" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N278" s="7">
         <v>16</v>
@@ -13441,7 +14041,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="35" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D279" s="7">
         <v>-1</v>
@@ -13450,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G279" s="7">
         <v>1</v>
@@ -13459,10 +14059,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="35" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="J279" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N279" s="7">
         <v>16</v>
@@ -13476,7 +14076,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="35" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D280" s="7">
         <v>-1</v>
@@ -13485,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G280" s="7">
         <v>1</v>
@@ -13494,10 +14094,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="35" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J280" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N280" s="7">
         <v>16</v>
@@ -13511,7 +14111,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="35" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D281" s="7">
         <v>-1</v>
@@ -13520,7 +14120,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G281" s="7">
         <v>1</v>
@@ -13529,10 +14129,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="35" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="J281" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N281" s="7">
         <v>16</v>
@@ -13546,7 +14146,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="35" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D282" s="7">
         <v>-1</v>
@@ -13555,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G282" s="7">
         <v>1</v>
@@ -13564,10 +14164,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="35" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J282" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N282" s="7">
         <v>16</v>
@@ -13581,7 +14181,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="35" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D283" s="7">
         <v>-1</v>
@@ -13590,7 +14190,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G283" s="7">
         <v>1</v>
@@ -13599,10 +14199,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="35" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J283" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N283" s="7">
         <v>16</v>
@@ -13616,7 +14216,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="35" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D284" s="7">
         <v>-1</v>
@@ -13625,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G284" s="7">
         <v>1</v>
@@ -13634,16 +14234,16 @@
         <v>99</v>
       </c>
       <c r="I284" s="35" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J284" s="35" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N284" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="3" customFormat="1">
+    <row r="285" s="3" customFormat="1" spans="1:10">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -13651,7 +14251,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D285" s="3">
         <v>-1</v>
@@ -13660,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G285" s="3">
         <v>0</v>
@@ -13669,13 +14269,13 @@
         <v>33</v>
       </c>
       <c r="I285" s="24" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" s="3" customFormat="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="286" s="3" customFormat="1" spans="1:10">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -13683,7 +14283,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D286" s="3">
         <v>-1</v>
@@ -13692,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G286" s="3">
         <v>0</v>
@@ -13701,13 +14301,13 @@
         <v>33</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" s="3" customFormat="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="287" s="3" customFormat="1" spans="1:10">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -13715,7 +14315,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D287" s="3">
         <v>-1</v>
@@ -13724,7 +14324,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -13733,13 +14333,13 @@
         <v>33</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" s="3" customFormat="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="288" s="3" customFormat="1" spans="1:10">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -13747,7 +14347,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D288" s="3">
         <v>-1</v>
@@ -13756,7 +14356,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G288" s="3">
         <v>0</v>
@@ -13765,13 +14365,13 @@
         <v>33</v>
       </c>
       <c r="I288" s="24" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="J288" s="24" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" s="3" customFormat="1">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="289" s="3" customFormat="1" spans="1:10">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -13779,7 +14379,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D289" s="3">
         <v>-1</v>
@@ -13788,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G289" s="3">
         <v>0</v>
@@ -13797,13 +14397,13 @@
         <v>33</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J289" s="24" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" s="3" customFormat="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="290" s="3" customFormat="1" spans="1:10">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -13811,7 +14411,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D290" s="3">
         <v>-1</v>
@@ -13820,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G290" s="3">
         <v>0</v>
@@ -13829,13 +14429,13 @@
         <v>33</v>
       </c>
       <c r="I290" s="24" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J290" s="24" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" s="8" customFormat="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="291" s="8" customFormat="1" spans="1:10">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -13843,7 +14443,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="30" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D291" s="8">
         <v>-1</v>
@@ -13852,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G291" s="8">
         <v>0</v>
@@ -13861,13 +14461,13 @@
         <v>33</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="J291" s="30" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="292" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -13875,7 +14475,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D292" s="3">
         <v>-1</v>
@@ -13884,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G292" s="3">
         <v>1</v>
@@ -13893,16 +14493,16 @@
         <v>33</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J292" s="24" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="L292" s="37" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="293" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -13910,7 +14510,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D293" s="3">
         <v>-1</v>
@@ -13919,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G293" s="3">
         <v>1</v>
@@ -13928,16 +14528,16 @@
         <v>33</v>
       </c>
       <c r="I293" s="24" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="J293" s="24" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="L293" s="37" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="294" s="3" customFormat="1" ht="16.5" spans="1:12">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -13945,7 +14545,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D294" s="3">
         <v>-1</v>
@@ -13954,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G294" s="3">
         <v>1</v>
@@ -13963,16 +14563,16 @@
         <v>33</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J294" s="24" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L294" s="37" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" s="3" customFormat="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="295" s="3" customFormat="1" spans="1:10">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -13980,7 +14580,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D295" s="3">
         <v>-1</v>
@@ -13989,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G295" s="3">
         <v>1</v>
@@ -13998,13 +14598,13 @@
         <v>33</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J295" s="24" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" s="3" customFormat="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="296" s="3" customFormat="1" spans="1:10">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -14012,7 +14612,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D296" s="3">
         <v>-1</v>
@@ -14021,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G296" s="3">
         <v>1</v>
@@ -14030,13 +14630,13 @@
         <v>33</v>
       </c>
       <c r="I296" s="24" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="J296" s="24" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" s="3" customFormat="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="297" s="3" customFormat="1" spans="1:10">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -14044,7 +14644,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D297" s="3">
         <v>-1</v>
@@ -14053,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="G297" s="3">
         <v>1</v>
@@ -14062,13 +14662,13 @@
         <v>33</v>
       </c>
       <c r="I297" s="24" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J297" s="24" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" s="3" customFormat="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="298" s="3" customFormat="1" spans="1:10">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -14076,7 +14676,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D298" s="3">
         <v>-1</v>
@@ -14085,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G298" s="3">
         <v>1</v>
@@ -14094,13 +14694,13 @@
         <v>33</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J298" s="24" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="299" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -14108,7 +14708,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D299" s="3">
         <v>-1</v>
@@ -14117,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="31" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G299" s="3">
         <v>0</v>
@@ -14129,10 +14729,10 @@
         <v>337</v>
       </c>
       <c r="J299" s="24" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="300" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -14140,7 +14740,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D300" s="3">
         <v>-1</v>
@@ -14149,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="24" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G300" s="3">
         <v>0</v>
@@ -14161,10 +14761,10 @@
         <v>346</v>
       </c>
       <c r="J300" s="24" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="301" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -14172,7 +14772,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D301" s="3">
         <v>-1</v>
@@ -14181,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G301" s="3">
         <v>0</v>
@@ -14193,10 +14793,10 @@
         <v>330</v>
       </c>
       <c r="J301" s="24" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="302" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -14204,7 +14804,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D302" s="3">
         <v>-1</v>
@@ -14213,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G302" s="3">
         <v>0</v>
@@ -14225,10 +14825,10 @@
         <v>334</v>
       </c>
       <c r="J302" s="24" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="303" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -14236,7 +14836,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D303" s="3">
         <v>-1</v>
@@ -14245,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="31" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="G303" s="3">
         <v>0</v>
@@ -14254,13 +14854,13 @@
         <v>1</v>
       </c>
       <c r="I303" s="24" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J303" s="24" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="304" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -14268,7 +14868,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D304" s="3">
         <v>-1</v>
@@ -14277,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="31" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G304" s="3">
         <v>0</v>
@@ -14286,13 +14886,13 @@
         <v>1</v>
       </c>
       <c r="I304" s="24" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="J304" s="24" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="305" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -14300,7 +14900,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D305" s="3">
         <v>-1</v>
@@ -14309,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="31" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G305" s="3">
         <v>0</v>
@@ -14318,13 +14918,13 @@
         <v>1</v>
       </c>
       <c r="I305" s="24" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="J305" s="24" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="306" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -14332,7 +14932,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D306" s="3">
         <v>-1</v>
@@ -14341,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="24" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G306" s="3">
         <v>0</v>
@@ -14350,13 +14950,13 @@
         <v>1</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J306" s="24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="307" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -14364,7 +14964,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D307" s="3">
         <v>-1</v>
@@ -14373,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="24" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G307" s="3">
         <v>0</v>
@@ -14382,13 +14982,13 @@
         <v>1</v>
       </c>
       <c r="I307" s="24" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J307" s="24" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" s="9" customFormat="1" ht="16.5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="308" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -14396,7 +14996,7 @@
         <v>307</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D308" s="3">
         <v>-1</v>
@@ -14405,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="G308" s="3">
         <v>1</v>
@@ -14414,19 +15014,19 @@
         <v>1</v>
       </c>
       <c r="I308" s="24" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J308" s="38" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K308" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L308" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" s="9" customFormat="1" ht="16.5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="309" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -14434,37 +15034,37 @@
         <v>308</v>
       </c>
       <c r="C309" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="D309" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="G309" s="3">
+        <v>1</v>
+      </c>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="I309" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="J309" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="K309" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="D309" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="3">
-        <v>1</v>
-      </c>
-      <c r="F309" s="25" t="s">
+      <c r="L309" s="39" t="s">
         <v>947</v>
       </c>
-      <c r="G309" s="3">
-        <v>1</v>
-      </c>
-      <c r="H309" s="3">
-        <v>1</v>
-      </c>
-      <c r="I309" s="24" t="s">
-        <v>948</v>
-      </c>
-      <c r="J309" s="38" t="s">
-        <v>949</v>
-      </c>
-      <c r="K309" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" s="9" customFormat="1" ht="16.5">
+    </row>
+    <row r="310" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -14472,7 +15072,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D310" s="3">
         <v>-1</v>
@@ -14481,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="25" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G310" s="3">
         <v>1</v>
@@ -14490,19 +15090,19 @@
         <v>1</v>
       </c>
       <c r="I310" s="24" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J310" s="38" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K310" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L310" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" s="9" customFormat="1" ht="16.5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="311" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -14510,7 +15110,7 @@
         <v>310</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D311" s="3">
         <v>-1</v>
@@ -14519,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="25" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="G311" s="3">
         <v>1</v>
@@ -14528,19 +15128,19 @@
         <v>1</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J311" s="38" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K311" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L311" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" s="9" customFormat="1" ht="16.5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="312" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -14548,7 +15148,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D312" s="3">
         <v>-1</v>
@@ -14557,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G312" s="3">
         <v>1</v>
@@ -14566,19 +15166,19 @@
         <v>1</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J312" s="38" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="K312" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L312" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" s="9" customFormat="1" ht="16.5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="313" s="9" customFormat="1" ht="16.5" spans="1:12">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -14586,7 +15186,7 @@
         <v>312</v>
       </c>
       <c r="C313" s="24" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D313" s="3">
         <v>-1</v>
@@ -14595,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G313" s="3">
         <v>1</v>
@@ -14604,19 +15204,19 @@
         <v>1</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J313" s="38" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K313" s="9" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" s="3" customFormat="1" ht="16.5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="314" s="3" customFormat="1" ht="16.5" spans="1:10">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -14624,7 +15224,7 @@
         <v>313</v>
       </c>
       <c r="C314" s="25" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D314" s="3">
         <v>-1</v>
@@ -14633,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="F314" s="31" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="G314" s="3">
         <v>0</v>
@@ -14642,13 +15242,13 @@
         <v>1</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="J314" s="24" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" ht="16.5">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="315" ht="16.5" spans="1:12">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -14656,7 +15256,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D315" s="3">
         <v>-1</v>
@@ -14665,7 +15265,7 @@
         <v>1</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G315" s="10">
         <v>1</v>
@@ -14674,16 +15274,16 @@
         <v>1</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="J315" s="10" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="L315" s="14" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" ht="16.5">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="316" ht="16.5" spans="1:12">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -14691,7 +15291,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D316" s="3">
         <v>-1</v>
@@ -14700,7 +15300,7 @@
         <v>1</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="G316" s="10">
         <v>1</v>
@@ -14709,16 +15309,16 @@
         <v>1</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J316" s="10" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="L316" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" ht="16.5">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="317" ht="16.5" spans="1:12">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -14726,7 +15326,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D317" s="3">
         <v>-1</v>
@@ -14735,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G317" s="10">
         <v>1</v>
@@ -14744,16 +15344,16 @@
         <v>1</v>
       </c>
       <c r="I317" s="14" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J317" s="10" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="L317" s="14" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" ht="16.5">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="318" ht="16.5" spans="1:12">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -14761,7 +15361,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D318" s="3">
         <v>-1</v>
@@ -14770,7 +15370,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G318" s="10">
         <v>1</v>
@@ -14779,16 +15379,16 @@
         <v>1</v>
       </c>
       <c r="I318" s="14" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="J318" s="10" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="L318" s="14" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -14796,7 +15396,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D319" s="10">
         <v>-1</v>
@@ -14805,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G319" s="10">
         <v>0</v>
@@ -14814,10 +15414,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="14" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J319" s="14" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14828,7 +15428,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D320" s="10">
         <v>-1</v>
@@ -14837,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G320" s="10">
         <v>1</v>
@@ -14846,13 +15446,13 @@
         <v>1</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="J320" s="14" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="L320" s="14" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -14863,7 +15463,7 @@
         <v>320</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D321" s="10">
         <v>-1</v>
@@ -14872,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G321" s="10">
         <v>0</v>
@@ -14881,10 +15481,10 @@
         <v>1</v>
       </c>
       <c r="I321" s="14" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J321" s="14" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -14895,7 +15495,7 @@
         <v>321</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D322" s="10">
         <v>-1</v>
@@ -14904,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G322" s="10">
         <v>0</v>
@@ -14913,15 +15513,15 @@
         <v>1</v>
       </c>
       <c r="I322" s="14" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J322" s="14" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>